--- a/trunk/DatabaseSchema/gymData.xlsx
+++ b/trunk/DatabaseSchema/gymData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21075" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15480" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
     <sheet name="class" sheetId="3" r:id="rId2"/>
+    <sheet name="Instructor" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="2517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="3452">
   <si>
     <t>firstName</t>
   </si>
@@ -7566,17 +7567,2823 @@
   </si>
   <si>
     <t>Room</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>sed@ultricies.com</t>
+  </si>
+  <si>
+    <t>01223 545984</t>
+  </si>
+  <si>
+    <t>P.O. Box 229, 1245 Tristique Street</t>
+  </si>
+  <si>
+    <t>Marshfield</t>
+  </si>
+  <si>
+    <t>Allegra Puckett</t>
+  </si>
+  <si>
+    <t>daugther</t>
+  </si>
+  <si>
+    <t>02965 600050</t>
+  </si>
+  <si>
+    <t>Amery G. Burgess</t>
+  </si>
+  <si>
+    <t>79492 129148</t>
+  </si>
+  <si>
+    <t>Slade</t>
+  </si>
+  <si>
+    <t>Vazquez</t>
+  </si>
+  <si>
+    <t>Etiam.gravida@risus.edu</t>
+  </si>
+  <si>
+    <t>01223 492762</t>
+  </si>
+  <si>
+    <t>378-8528 Eu, Rd.</t>
+  </si>
+  <si>
+    <t>Jenette England</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>11263 188105</t>
+  </si>
+  <si>
+    <t>Lawrence X. Fulton</t>
+  </si>
+  <si>
+    <t>70192 808911</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Kirkland</t>
+  </si>
+  <si>
+    <t>consectetuer.cursus.et@orciDonecnibh.org</t>
+  </si>
+  <si>
+    <t>01223 360240</t>
+  </si>
+  <si>
+    <t>325-3796 Phasellus Road</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>Damian Lamb</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>70238 302005</t>
+  </si>
+  <si>
+    <t>Pearl I. Slater</t>
+  </si>
+  <si>
+    <t>75717 642355</t>
+  </si>
+  <si>
+    <t>Orson</t>
+  </si>
+  <si>
+    <t>diam.eu@eu.ca</t>
+  </si>
+  <si>
+    <t>01223 736011</t>
+  </si>
+  <si>
+    <t>4343 Mattis. Street</t>
+  </si>
+  <si>
+    <t>Pocatello</t>
+  </si>
+  <si>
+    <t>Byron Santiago</t>
+  </si>
+  <si>
+    <t>10542 900636</t>
+  </si>
+  <si>
+    <t>Richard M. Olson</t>
+  </si>
+  <si>
+    <t>33165 780886</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>gravida.non@in.com</t>
+  </si>
+  <si>
+    <t>01223 021564</t>
+  </si>
+  <si>
+    <t>P.O. Box 482, 1456 Nunc Street</t>
+  </si>
+  <si>
+    <t>Beverly Hills</t>
+  </si>
+  <si>
+    <t>Doris Acosta</t>
+  </si>
+  <si>
+    <t>cousin</t>
+  </si>
+  <si>
+    <t>07709 250566</t>
+  </si>
+  <si>
+    <t>Malik P. Whitehead</t>
+  </si>
+  <si>
+    <t>71515 228396</t>
+  </si>
+  <si>
+    <t>at@Donecluctus.edu</t>
+  </si>
+  <si>
+    <t>01223 640212</t>
+  </si>
+  <si>
+    <t>765 Odio. Street</t>
+  </si>
+  <si>
+    <t>Lillian Guerrero</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>26944 515155</t>
+  </si>
+  <si>
+    <t>Lyle K. Booker</t>
+  </si>
+  <si>
+    <t>35589 189458</t>
+  </si>
+  <si>
+    <t>Sierra</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>ornare@temporbibendum.edu</t>
+  </si>
+  <si>
+    <t>01223 501936</t>
+  </si>
+  <si>
+    <t>Ap #730-981 Enim. St.</t>
+  </si>
+  <si>
+    <t>Middlebury</t>
+  </si>
+  <si>
+    <t>Cain Meadows</t>
+  </si>
+  <si>
+    <t>01755 161281</t>
+  </si>
+  <si>
+    <t>Judith N. Campbell</t>
+  </si>
+  <si>
+    <t>00525 240357</t>
+  </si>
+  <si>
+    <t>Uriah</t>
+  </si>
+  <si>
+    <t>nonummy.ipsum@nisiMauris.ca</t>
+  </si>
+  <si>
+    <t>01223 989599</t>
+  </si>
+  <si>
+    <t>380-6204 Aliquet St.</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>Martina Cleveland</t>
+  </si>
+  <si>
+    <t>51366 746531</t>
+  </si>
+  <si>
+    <t>Kendall T. Hill</t>
+  </si>
+  <si>
+    <t>85946 555069</t>
+  </si>
+  <si>
+    <t>Paki</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Praesent.eu@NullafacilisisSuspendisse.ca</t>
+  </si>
+  <si>
+    <t>01223 042827</t>
+  </si>
+  <si>
+    <t>319-2678 Arcu. Ave</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Florence Watts</t>
+  </si>
+  <si>
+    <t>67035 926344</t>
+  </si>
+  <si>
+    <t>Leigh V. Reid</t>
+  </si>
+  <si>
+    <t>83011 856527</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Sellers</t>
+  </si>
+  <si>
+    <t>Curabitur@vitaeerat.com</t>
+  </si>
+  <si>
+    <t>01223 232115</t>
+  </si>
+  <si>
+    <t>Ap #153-8280 Cursus. Street</t>
+  </si>
+  <si>
+    <t>Mannix Bell</t>
+  </si>
+  <si>
+    <t>14789 432853</t>
+  </si>
+  <si>
+    <t>Clinton U. Garza</t>
+  </si>
+  <si>
+    <t>01441 777925</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>lorem@ornare.ca</t>
+  </si>
+  <si>
+    <t>01223 252063</t>
+  </si>
+  <si>
+    <t>344-8615 Dictum St.</t>
+  </si>
+  <si>
+    <t>Downey</t>
+  </si>
+  <si>
+    <t>Chaim Bennett</t>
+  </si>
+  <si>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>49619 901422</t>
+  </si>
+  <si>
+    <t>Benedict E. Bowman</t>
+  </si>
+  <si>
+    <t>38104 859345</t>
+  </si>
+  <si>
+    <t>Kaden</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>aliquam@Pellentesquetincidunt.ca</t>
+  </si>
+  <si>
+    <t>01223 838077</t>
+  </si>
+  <si>
+    <t>P.O. Box 123, 2553 Id Ave</t>
+  </si>
+  <si>
+    <t>Cohoes</t>
+  </si>
+  <si>
+    <t>Hakeem Nolan</t>
+  </si>
+  <si>
+    <t>58504 882172</t>
+  </si>
+  <si>
+    <t>Kendall T. Munoz</t>
+  </si>
+  <si>
+    <t>59101 334929</t>
+  </si>
+  <si>
+    <t>Yoko</t>
+  </si>
+  <si>
+    <t>Mosley</t>
+  </si>
+  <si>
+    <t>elit.sed@Morbi.org</t>
+  </si>
+  <si>
+    <t>01223 083842</t>
+  </si>
+  <si>
+    <t>390-8765 Et Rd.</t>
+  </si>
+  <si>
+    <t>Schaumburg</t>
+  </si>
+  <si>
+    <t>Demetrius Blevins</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>65937 208136</t>
+  </si>
+  <si>
+    <t>Beck K. Lott</t>
+  </si>
+  <si>
+    <t>81447 031791</t>
+  </si>
+  <si>
+    <t>Avram</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>porttitor.vulputate@euturpisNulla.org</t>
+  </si>
+  <si>
+    <t>01223 942333</t>
+  </si>
+  <si>
+    <t>P.O. Box 894, 2012 Fermentum Av.</t>
+  </si>
+  <si>
+    <t>Easthampton</t>
+  </si>
+  <si>
+    <t>Len Chen</t>
+  </si>
+  <si>
+    <t>25012 482805</t>
+  </si>
+  <si>
+    <t>Hammett N. Carter</t>
+  </si>
+  <si>
+    <t>39283 559719</t>
+  </si>
+  <si>
+    <t>Hawkins</t>
+  </si>
+  <si>
+    <t>ut.aliquam@semperpretiumneque.org</t>
+  </si>
+  <si>
+    <t>01223 607137</t>
+  </si>
+  <si>
+    <t>P.O. Box 925, 7574 Tincidunt, St.</t>
+  </si>
+  <si>
+    <t>Alamogordo</t>
+  </si>
+  <si>
+    <t>Michelle Snow</t>
+  </si>
+  <si>
+    <t>55643 309470</t>
+  </si>
+  <si>
+    <t>Mannix R. Little</t>
+  </si>
+  <si>
+    <t>89075 386832</t>
+  </si>
+  <si>
+    <t>Pope</t>
+  </si>
+  <si>
+    <t>Donec.est.mauris@semmagnanec.org</t>
+  </si>
+  <si>
+    <t>01223 732411</t>
+  </si>
+  <si>
+    <t>Ap #820-7642 Suspendisse Avenue</t>
+  </si>
+  <si>
+    <t>Moses Cantrell</t>
+  </si>
+  <si>
+    <t>96012 780004</t>
+  </si>
+  <si>
+    <t>Brooke K. Sellers</t>
+  </si>
+  <si>
+    <t>01654 096057</t>
+  </si>
+  <si>
+    <t>Branden</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>nunc@aliquameuaccumsan.edu</t>
+  </si>
+  <si>
+    <t>01223 419710</t>
+  </si>
+  <si>
+    <t>Ap #539-7075 Porttitor Ave</t>
+  </si>
+  <si>
+    <t>Canton</t>
+  </si>
+  <si>
+    <t>Jorden Dyer</t>
+  </si>
+  <si>
+    <t>55855 869067</t>
+  </si>
+  <si>
+    <t>Yael U. Cross</t>
+  </si>
+  <si>
+    <t>05304 832390</t>
+  </si>
+  <si>
+    <t>Urielle</t>
+  </si>
+  <si>
+    <t>In@volutpat.org</t>
+  </si>
+  <si>
+    <t>01223 387193</t>
+  </si>
+  <si>
+    <t>2862 Amet Avenue</t>
+  </si>
+  <si>
+    <t>Hayward</t>
+  </si>
+  <si>
+    <t>Zeus Newton</t>
+  </si>
+  <si>
+    <t>94006 191579</t>
+  </si>
+  <si>
+    <t>Beck C. Hill</t>
+  </si>
+  <si>
+    <t>62986 731671</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>massa.Vestibulum.accumsan@nonenimMauris.edu</t>
+  </si>
+  <si>
+    <t>01223 024196</t>
+  </si>
+  <si>
+    <t>809-1439 Vitae, Av.</t>
+  </si>
+  <si>
+    <t>Laguna Hills</t>
+  </si>
+  <si>
+    <t>Isaiah Suarez</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>51241 441682</t>
+  </si>
+  <si>
+    <t>Hyatt S. Andrews</t>
+  </si>
+  <si>
+    <t>60550 985407</t>
+  </si>
+  <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>urna.Nunc.quis@vitaesodalesat.edu</t>
+  </si>
+  <si>
+    <t>01223 470141</t>
+  </si>
+  <si>
+    <t>P.O. Box 719, 8246 Nec Avenue</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Cameron Terry</t>
+  </si>
+  <si>
+    <t>58628 032844</t>
+  </si>
+  <si>
+    <t>Tyrone E. Shaffer</t>
+  </si>
+  <si>
+    <t>04649 348835</t>
+  </si>
+  <si>
+    <t>Caryn</t>
+  </si>
+  <si>
+    <t>semper.Nam.tempor@neque.org</t>
+  </si>
+  <si>
+    <t>01223 173378</t>
+  </si>
+  <si>
+    <t>Ap #391-6463 Vestibulum St.</t>
+  </si>
+  <si>
+    <t>Courtney Warner</t>
+  </si>
+  <si>
+    <t>25436 388021</t>
+  </si>
+  <si>
+    <t>Mechelle B. Holmes</t>
+  </si>
+  <si>
+    <t>71911 758913</t>
+  </si>
+  <si>
+    <t>Fritz</t>
+  </si>
+  <si>
+    <t>ante.dictum.cursus@Maecenas.org</t>
+  </si>
+  <si>
+    <t>01223 909070</t>
+  </si>
+  <si>
+    <t>P.O. Box 779, 5373 Aliquam Avenue</t>
+  </si>
+  <si>
+    <t>Alpharetta</t>
+  </si>
+  <si>
+    <t>Oprah Moon</t>
+  </si>
+  <si>
+    <t>03926 376376</t>
+  </si>
+  <si>
+    <t>Desirae F. Galloway</t>
+  </si>
+  <si>
+    <t>62459 102242</t>
+  </si>
+  <si>
+    <t>Jelani</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Curae;@tellussem.org</t>
+  </si>
+  <si>
+    <t>01223 600963</t>
+  </si>
+  <si>
+    <t>573-2453 Placerat St.</t>
+  </si>
+  <si>
+    <t>Moraga</t>
+  </si>
+  <si>
+    <t>Patience Odonnell</t>
+  </si>
+  <si>
+    <t>10595 362361</t>
+  </si>
+  <si>
+    <t>Cameron Z. Ramsey</t>
+  </si>
+  <si>
+    <t>91444 838043</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>sed.pede@iaculislacuspede.org</t>
+  </si>
+  <si>
+    <t>01223 593594</t>
+  </si>
+  <si>
+    <t>8063 Nonummy Road</t>
+  </si>
+  <si>
+    <t>Naomi Shannon</t>
+  </si>
+  <si>
+    <t>99225 011615</t>
+  </si>
+  <si>
+    <t>Neil P. Jacobs</t>
+  </si>
+  <si>
+    <t>46389 044037</t>
+  </si>
+  <si>
+    <t>Emery</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>Nunc.pulvinar@nisimagna.com</t>
+  </si>
+  <si>
+    <t>01223 917563</t>
+  </si>
+  <si>
+    <t>993-8379 At, Road</t>
+  </si>
+  <si>
+    <t>Adara Carver</t>
+  </si>
+  <si>
+    <t>82986 416592</t>
+  </si>
+  <si>
+    <t>Lynn K. Weaver</t>
+  </si>
+  <si>
+    <t>63171 344263</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Morbi@quis.org</t>
+  </si>
+  <si>
+    <t>01223 426899</t>
+  </si>
+  <si>
+    <t>P.O. Box 403, 706 Non, Rd.</t>
+  </si>
+  <si>
+    <t>Lana Olson</t>
+  </si>
+  <si>
+    <t>91724 498666</t>
+  </si>
+  <si>
+    <t>Yolanda F. Carey</t>
+  </si>
+  <si>
+    <t>98278 574482</t>
+  </si>
+  <si>
+    <t>Nero</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>dolor@Craseu.ca</t>
+  </si>
+  <si>
+    <t>01223 940138</t>
+  </si>
+  <si>
+    <t>Ap #960-8638 Vestibulum, St.</t>
+  </si>
+  <si>
+    <t>Crown Point</t>
+  </si>
+  <si>
+    <t>Idona Powell</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>05560 050451</t>
+  </si>
+  <si>
+    <t>Kennedy D. Robinson</t>
+  </si>
+  <si>
+    <t>69983 997953</t>
+  </si>
+  <si>
+    <t>Maia</t>
+  </si>
+  <si>
+    <t>purus.Maecenas@arcueuodio.com</t>
+  </si>
+  <si>
+    <t>01223 982141</t>
+  </si>
+  <si>
+    <t>Ap #100-2890 Gravida Street</t>
+  </si>
+  <si>
+    <t>Hanahan</t>
+  </si>
+  <si>
+    <t>Zelda Sears</t>
+  </si>
+  <si>
+    <t>41961 311142</t>
+  </si>
+  <si>
+    <t>Berk X. Elliott</t>
+  </si>
+  <si>
+    <t>53641 026546</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Mcgee</t>
+  </si>
+  <si>
+    <t>non.justo.Proin@euerat.edu</t>
+  </si>
+  <si>
+    <t>01223 814767</t>
+  </si>
+  <si>
+    <t>5046 Sem St.</t>
+  </si>
+  <si>
+    <t>Homer</t>
+  </si>
+  <si>
+    <t>Lareina Booker</t>
+  </si>
+  <si>
+    <t>09475 087991</t>
+  </si>
+  <si>
+    <t>Mira Q. Wallace</t>
+  </si>
+  <si>
+    <t>03775 927921</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>magna.Lorem.ipsum@necmauris.ca</t>
+  </si>
+  <si>
+    <t>01223 928621</t>
+  </si>
+  <si>
+    <t>Ap #376-2540 Dui, Avenue</t>
+  </si>
+  <si>
+    <t>Idaho Falls</t>
+  </si>
+  <si>
+    <t>Doris Kim</t>
+  </si>
+  <si>
+    <t>13888 478664</t>
+  </si>
+  <si>
+    <t>Lila K. Kemp</t>
+  </si>
+  <si>
+    <t>93983 952081</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>erat.eget.tincidunt@cursusIntegermollis.org</t>
+  </si>
+  <si>
+    <t>01223 360763</t>
+  </si>
+  <si>
+    <t>Ap #665-9670 Magnis Rd.</t>
+  </si>
+  <si>
+    <t>Attleboro</t>
+  </si>
+  <si>
+    <t>Nolan Sanders</t>
+  </si>
+  <si>
+    <t>99158 201908</t>
+  </si>
+  <si>
+    <t>Patrick O. Hill</t>
+  </si>
+  <si>
+    <t>22032 754645</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>euismod@Nunc.edu</t>
+  </si>
+  <si>
+    <t>01223 085518</t>
+  </si>
+  <si>
+    <t>P.O. Box 435, 235 Enim. Rd.</t>
+  </si>
+  <si>
+    <t>Aspen Jensen</t>
+  </si>
+  <si>
+    <t>77969 089845</t>
+  </si>
+  <si>
+    <t>Zeus W. Todd</t>
+  </si>
+  <si>
+    <t>87413 490179</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>amet.consectetuer@dolordapibusgravida.org</t>
+  </si>
+  <si>
+    <t>01223 295072</t>
+  </si>
+  <si>
+    <t>Ap #960-8821 Nec, Avenue</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Bo Melendez</t>
+  </si>
+  <si>
+    <t>20807 779620</t>
+  </si>
+  <si>
+    <t>Sebastian Q. Hewitt</t>
+  </si>
+  <si>
+    <t>00396 181499</t>
+  </si>
+  <si>
+    <t>Kiayada</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>eget@utnullaCras.ca</t>
+  </si>
+  <si>
+    <t>01223 522133</t>
+  </si>
+  <si>
+    <t>P.O. Box 716, 1129 Nisi. Street</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Cally Aguirre</t>
+  </si>
+  <si>
+    <t>43442 837169</t>
+  </si>
+  <si>
+    <t>Vernon A. Davidson</t>
+  </si>
+  <si>
+    <t>60993 495829</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>taciti.sociosqu@inceptos.com</t>
+  </si>
+  <si>
+    <t>01223 326386</t>
+  </si>
+  <si>
+    <t>P.O. Box 793, 6733 Quis, Ave</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Laurel Whitfield</t>
+  </si>
+  <si>
+    <t>09239 572736</t>
+  </si>
+  <si>
+    <t>Thomas G. Garrett</t>
+  </si>
+  <si>
+    <t>37721 631623</t>
+  </si>
+  <si>
+    <t>Aileen</t>
+  </si>
+  <si>
+    <t>Compton</t>
+  </si>
+  <si>
+    <t>mauris.sit@arcuCurabiturut.ca</t>
+  </si>
+  <si>
+    <t>01223 332670</t>
+  </si>
+  <si>
+    <t>P.O. Box 122, 2794 Vehicula Avenue</t>
+  </si>
+  <si>
+    <t>Frisco</t>
+  </si>
+  <si>
+    <t>Nina Leblanc</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>65084 478804</t>
+  </si>
+  <si>
+    <t>Fallon I. Dillard</t>
+  </si>
+  <si>
+    <t>08721 357907</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Lynn</t>
+  </si>
+  <si>
+    <t>amet@Vivamusnibh.com</t>
+  </si>
+  <si>
+    <t>01223 125424</t>
+  </si>
+  <si>
+    <t>Ap #632-964 Pellentesque Rd.</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>Kibo Castro</t>
+  </si>
+  <si>
+    <t>06271 213568</t>
+  </si>
+  <si>
+    <t>Kylie Q. Dyer</t>
+  </si>
+  <si>
+    <t>26531 923986</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>eros.nec@nulla.com</t>
+  </si>
+  <si>
+    <t>01223 546163</t>
+  </si>
+  <si>
+    <t>Ap #624-3470 Sociis St.</t>
+  </si>
+  <si>
+    <t>Scranton</t>
+  </si>
+  <si>
+    <t>Katelyn Dillard</t>
+  </si>
+  <si>
+    <t>16248 083455</t>
+  </si>
+  <si>
+    <t>Sage N. Merrill</t>
+  </si>
+  <si>
+    <t>18594 112274</t>
+  </si>
+  <si>
+    <t>Navarro</t>
+  </si>
+  <si>
+    <t>Donec.sollicitudin@sedsapien.org</t>
+  </si>
+  <si>
+    <t>01223 781200</t>
+  </si>
+  <si>
+    <t>Ap #133-1589 Libero St.</t>
+  </si>
+  <si>
+    <t>Saint Paul</t>
+  </si>
+  <si>
+    <t>Fatima Wall</t>
+  </si>
+  <si>
+    <t>69494 542355</t>
+  </si>
+  <si>
+    <t>Kameko V. Carey</t>
+  </si>
+  <si>
+    <t>19376 097691</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>natoque.penatibus.et@Duis.edu</t>
+  </si>
+  <si>
+    <t>01223 893602</t>
+  </si>
+  <si>
+    <t>1532 In Av.</t>
+  </si>
+  <si>
+    <t>Myra Roy</t>
+  </si>
+  <si>
+    <t>01685 737631</t>
+  </si>
+  <si>
+    <t>Glenna Y. Riddle</t>
+  </si>
+  <si>
+    <t>79417 017024</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Mauris.vel@magnaa.edu</t>
+  </si>
+  <si>
+    <t>01223 549419</t>
+  </si>
+  <si>
+    <t>Ap #920-4096 Accumsan Street</t>
+  </si>
+  <si>
+    <t>Isle of Palms</t>
+  </si>
+  <si>
+    <t>Uriel Owens</t>
+  </si>
+  <si>
+    <t>67382 407802</t>
+  </si>
+  <si>
+    <t>Imani V. Strong</t>
+  </si>
+  <si>
+    <t>98996 564248</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Nielsen</t>
+  </si>
+  <si>
+    <t>eget.venenatis@lacusMaurisnon.ca</t>
+  </si>
+  <si>
+    <t>01223 867655</t>
+  </si>
+  <si>
+    <t>P.O. Box 242, 2071 Tincidunt Rd.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Grace Moody</t>
+  </si>
+  <si>
+    <t>82451 640317</t>
+  </si>
+  <si>
+    <t>Desirae F. Warren</t>
+  </si>
+  <si>
+    <t>56734 374198</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>mattis@sagittisaugue.com</t>
+  </si>
+  <si>
+    <t>01223 413760</t>
+  </si>
+  <si>
+    <t>856-7130 Amet, Avenue</t>
+  </si>
+  <si>
+    <t>Turlock</t>
+  </si>
+  <si>
+    <t>Alisa Owens</t>
+  </si>
+  <si>
+    <t>30236 171219</t>
+  </si>
+  <si>
+    <t>Demetrius A. Garcia</t>
+  </si>
+  <si>
+    <t>06009 390792</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>aliquet@in.edu</t>
+  </si>
+  <si>
+    <t>01223 415522</t>
+  </si>
+  <si>
+    <t>P.O. Box 935, 1975 Et Street</t>
+  </si>
+  <si>
+    <t>Miranda Carrillo</t>
+  </si>
+  <si>
+    <t>54127 042107</t>
+  </si>
+  <si>
+    <t>Xanthus R. Cash</t>
+  </si>
+  <si>
+    <t>79244 682224</t>
+  </si>
+  <si>
+    <t>Jescie</t>
+  </si>
+  <si>
+    <t>Ayala</t>
+  </si>
+  <si>
+    <t>consequat.auctor@arcuCurabitur.com</t>
+  </si>
+  <si>
+    <t>01223 645215</t>
+  </si>
+  <si>
+    <t>1957 Fusce Rd.</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Doris Hickman</t>
+  </si>
+  <si>
+    <t>81448 082628</t>
+  </si>
+  <si>
+    <t>Avram M. Burks</t>
+  </si>
+  <si>
+    <t>98687 468272</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>nisl.Maecenas@vitaedolorDonec.ca</t>
+  </si>
+  <si>
+    <t>01223 529917</t>
+  </si>
+  <si>
+    <t>Ap #214-7084 Natoque St.</t>
+  </si>
+  <si>
+    <t>Henderson</t>
+  </si>
+  <si>
+    <t>Ila Key</t>
+  </si>
+  <si>
+    <t>92330 525715</t>
+  </si>
+  <si>
+    <t>Buffy W. Klein</t>
+  </si>
+  <si>
+    <t>24634 233257</t>
+  </si>
+  <si>
+    <t>massa.Mauris.vestibulum@convallis.com</t>
+  </si>
+  <si>
+    <t>01223 858782</t>
+  </si>
+  <si>
+    <t>Ap #647-5957 Nec Street</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>Shelly Carson</t>
+  </si>
+  <si>
+    <t>23664 192779</t>
+  </si>
+  <si>
+    <t>Marvin F. Howe</t>
+  </si>
+  <si>
+    <t>34524 772909</t>
+  </si>
+  <si>
+    <t>ac.turpis@idenimCurabitur.ca</t>
+  </si>
+  <si>
+    <t>01223 552796</t>
+  </si>
+  <si>
+    <t>P.O. Box 172, 8603 Mauris St.</t>
+  </si>
+  <si>
+    <t>August Spence</t>
+  </si>
+  <si>
+    <t>94202 187705</t>
+  </si>
+  <si>
+    <t>Kennedy S. Matthews</t>
+  </si>
+  <si>
+    <t>80973 632675</t>
+  </si>
+  <si>
+    <t>sagittis.semper.Nam@egestas.com</t>
+  </si>
+  <si>
+    <t>01223 109899</t>
+  </si>
+  <si>
+    <t>534-9777 Et, Ave</t>
+  </si>
+  <si>
+    <t>Basil Powers</t>
+  </si>
+  <si>
+    <t>11022 664752</t>
+  </si>
+  <si>
+    <t>Ainsley M. Mann</t>
+  </si>
+  <si>
+    <t>73734 527738</t>
+  </si>
+  <si>
+    <t>Mccormick</t>
+  </si>
+  <si>
+    <t>a@sem.ca</t>
+  </si>
+  <si>
+    <t>01223 744218</t>
+  </si>
+  <si>
+    <t>645-6997 Quisque Rd.</t>
+  </si>
+  <si>
+    <t>Fay Arnold</t>
+  </si>
+  <si>
+    <t>53403 891244</t>
+  </si>
+  <si>
+    <t>Melodie S. Hale</t>
+  </si>
+  <si>
+    <t>26581 574108</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>lectus.pede@tinciduntpedeac.ca</t>
+  </si>
+  <si>
+    <t>01223 162898</t>
+  </si>
+  <si>
+    <t>P.O. Box 117, 6087 Est, Av.</t>
+  </si>
+  <si>
+    <t>Lahaina</t>
+  </si>
+  <si>
+    <t>Camilla Page</t>
+  </si>
+  <si>
+    <t>76804 896515</t>
+  </si>
+  <si>
+    <t>Myra M. Valenzuela</t>
+  </si>
+  <si>
+    <t>89970 974743</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>non.arcu.Vivamus@luctusetultrices.org</t>
+  </si>
+  <si>
+    <t>01223 145625</t>
+  </si>
+  <si>
+    <t>Ap #522-8370 Mauris St.</t>
+  </si>
+  <si>
+    <t>Bangor</t>
+  </si>
+  <si>
+    <t>Cheryl Fowler</t>
+  </si>
+  <si>
+    <t>77587 248604</t>
+  </si>
+  <si>
+    <t>Chantale S. Montgomery</t>
+  </si>
+  <si>
+    <t>32417 195860</t>
+  </si>
+  <si>
+    <t>Hooper</t>
+  </si>
+  <si>
+    <t>elementum@sedhendrerit.edu</t>
+  </si>
+  <si>
+    <t>01223 018751</t>
+  </si>
+  <si>
+    <t>3999 Neque. Ave</t>
+  </si>
+  <si>
+    <t>Graham Faulkner</t>
+  </si>
+  <si>
+    <t>81791 093102</t>
+  </si>
+  <si>
+    <t>Pearl A. Burke</t>
+  </si>
+  <si>
+    <t>78788 617434</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>sem.consequat@malesuadaiderat.edu</t>
+  </si>
+  <si>
+    <t>01223 272240</t>
+  </si>
+  <si>
+    <t>6838 Nisi Road</t>
+  </si>
+  <si>
+    <t>Lunea Carrillo</t>
+  </si>
+  <si>
+    <t>62824 525807</t>
+  </si>
+  <si>
+    <t>Andrew J. Cummings</t>
+  </si>
+  <si>
+    <t>65948 171790</t>
+  </si>
+  <si>
+    <t>Huff</t>
+  </si>
+  <si>
+    <t>fringilla.euismod.enim@Nullamvitae.ca</t>
+  </si>
+  <si>
+    <t>01223 680046</t>
+  </si>
+  <si>
+    <t>212-6779 At Avenue</t>
+  </si>
+  <si>
+    <t>Pasadena</t>
+  </si>
+  <si>
+    <t>Tanya Murray</t>
+  </si>
+  <si>
+    <t>05359 046847</t>
+  </si>
+  <si>
+    <t>Lareina Q. Bishop</t>
+  </si>
+  <si>
+    <t>64782 077030</t>
+  </si>
+  <si>
+    <t>Fulton</t>
+  </si>
+  <si>
+    <t>per.conubia@ante.org</t>
+  </si>
+  <si>
+    <t>01223 016781</t>
+  </si>
+  <si>
+    <t>521-4035 Luctus Rd.</t>
+  </si>
+  <si>
+    <t>Calabasas</t>
+  </si>
+  <si>
+    <t>Jordan Rhodes</t>
+  </si>
+  <si>
+    <t>02435 996063</t>
+  </si>
+  <si>
+    <t>Micah U. Hess</t>
+  </si>
+  <si>
+    <t>77782 250274</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>nonummy.ac.feugiat@lacus.edu</t>
+  </si>
+  <si>
+    <t>01223 045823</t>
+  </si>
+  <si>
+    <t>Ap #856-6079 Tellus St.</t>
+  </si>
+  <si>
+    <t>Modesto</t>
+  </si>
+  <si>
+    <t>Burke Hamilton</t>
+  </si>
+  <si>
+    <t>38121 941409</t>
+  </si>
+  <si>
+    <t>Nora I. Lara</t>
+  </si>
+  <si>
+    <t>39698 181473</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>aliquet@pretium.ca</t>
+  </si>
+  <si>
+    <t>01223 625064</t>
+  </si>
+  <si>
+    <t>808-5297 Ornare Ave</t>
+  </si>
+  <si>
+    <t>La Puente</t>
+  </si>
+  <si>
+    <t>Danielle Dixon</t>
+  </si>
+  <si>
+    <t>88739 236586</t>
+  </si>
+  <si>
+    <t>Oleg I. Stokes</t>
+  </si>
+  <si>
+    <t>80409 724611</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>laoreet@congueelitsed.edu</t>
+  </si>
+  <si>
+    <t>01223 249539</t>
+  </si>
+  <si>
+    <t>7754 Massa Road</t>
+  </si>
+  <si>
+    <t>Mount Vernon</t>
+  </si>
+  <si>
+    <t>Ila Hale</t>
+  </si>
+  <si>
+    <t>40860 741080</t>
+  </si>
+  <si>
+    <t>Rhea A. Steele</t>
+  </si>
+  <si>
+    <t>17064 135544</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Kline</t>
+  </si>
+  <si>
+    <t>imperdiet.ornare@eueuismodac.com</t>
+  </si>
+  <si>
+    <t>01223 172180</t>
+  </si>
+  <si>
+    <t>417-9226 Lorem Rd.</t>
+  </si>
+  <si>
+    <t>Waltham</t>
+  </si>
+  <si>
+    <t>Todd Greer</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>09236 177998</t>
+  </si>
+  <si>
+    <t>Marsden M. Perkins</t>
+  </si>
+  <si>
+    <t>52200 527610</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>dolor@lectusNullamsuscipit.com</t>
+  </si>
+  <si>
+    <t>01223 222774</t>
+  </si>
+  <si>
+    <t>Ap #615-9769 Aliquam Ave</t>
+  </si>
+  <si>
+    <t>Hackensack</t>
+  </si>
+  <si>
+    <t>Clayton Brennan</t>
+  </si>
+  <si>
+    <t>21030 683800</t>
+  </si>
+  <si>
+    <t>Ivy Z. Schultz</t>
+  </si>
+  <si>
+    <t>24861 338558</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Morin</t>
+  </si>
+  <si>
+    <t>tellus@nasceturridiculusmus.org</t>
+  </si>
+  <si>
+    <t>01223 415439</t>
+  </si>
+  <si>
+    <t>P.O. Box 665, 4139 Ornare, St.</t>
+  </si>
+  <si>
+    <t>Yorba Linda</t>
+  </si>
+  <si>
+    <t>Castor Whitney</t>
+  </si>
+  <si>
+    <t>66893 578622</t>
+  </si>
+  <si>
+    <t>Illiana K. Farrell</t>
+  </si>
+  <si>
+    <t>06162 528286</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Clemons</t>
+  </si>
+  <si>
+    <t>ipsum.Suspendisse.non@vel.com</t>
+  </si>
+  <si>
+    <t>01223 376772</t>
+  </si>
+  <si>
+    <t>547-6230 Gravida. Road</t>
+  </si>
+  <si>
+    <t>Fort Worth</t>
+  </si>
+  <si>
+    <t>Owen Johnston</t>
+  </si>
+  <si>
+    <t>67657 091759</t>
+  </si>
+  <si>
+    <t>Axel A. Mcpherson</t>
+  </si>
+  <si>
+    <t>77837 025602</t>
+  </si>
+  <si>
+    <t>Riddle</t>
+  </si>
+  <si>
+    <t>eu.metus@eudoloregestas.com</t>
+  </si>
+  <si>
+    <t>01223 030008</t>
+  </si>
+  <si>
+    <t>Ap #982-7466 Vitae, Rd.</t>
+  </si>
+  <si>
+    <t>Del Rio</t>
+  </si>
+  <si>
+    <t>Logan Richards</t>
+  </si>
+  <si>
+    <t>18198 349740</t>
+  </si>
+  <si>
+    <t>Patricia J. Page</t>
+  </si>
+  <si>
+    <t>24273 898980</t>
+  </si>
+  <si>
+    <t>Vanna</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Cras@aliquetsem.com</t>
+  </si>
+  <si>
+    <t>01223 180515</t>
+  </si>
+  <si>
+    <t>6918 Ipsum Av.</t>
+  </si>
+  <si>
+    <t>Sonoma</t>
+  </si>
+  <si>
+    <t>Piper Noble</t>
+  </si>
+  <si>
+    <t>38449 063253</t>
+  </si>
+  <si>
+    <t>Yeo G. Bush</t>
+  </si>
+  <si>
+    <t>55456 824118</t>
+  </si>
+  <si>
+    <t>Melodie</t>
+  </si>
+  <si>
+    <t>Cantu</t>
+  </si>
+  <si>
+    <t>ut.erat@amet.org</t>
+  </si>
+  <si>
+    <t>01223 686942</t>
+  </si>
+  <si>
+    <t>2698 Faucibus Avenue</t>
+  </si>
+  <si>
+    <t>Ferris Hood</t>
+  </si>
+  <si>
+    <t>27288 573260</t>
+  </si>
+  <si>
+    <t>Dustin Q. Pace</t>
+  </si>
+  <si>
+    <t>32771 008371</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Meadows</t>
+  </si>
+  <si>
+    <t>Fusce.diam.nunc@luctusCurabitur.com</t>
+  </si>
+  <si>
+    <t>01223 889521</t>
+  </si>
+  <si>
+    <t>447-139 Ullamcorper, Avenue</t>
+  </si>
+  <si>
+    <t>Dubuque</t>
+  </si>
+  <si>
+    <t>Quyn Rice</t>
+  </si>
+  <si>
+    <t>76960 499394</t>
+  </si>
+  <si>
+    <t>Dominique Z. Browning</t>
+  </si>
+  <si>
+    <t>62003 945604</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>ultricies@magnaLorem.com</t>
+  </si>
+  <si>
+    <t>01223 404467</t>
+  </si>
+  <si>
+    <t>P.O. Box 525, 1349 Iaculis Ave</t>
+  </si>
+  <si>
+    <t>Natchez</t>
+  </si>
+  <si>
+    <t>Blair David</t>
+  </si>
+  <si>
+    <t>96361 106141</t>
+  </si>
+  <si>
+    <t>William Q. Walters</t>
+  </si>
+  <si>
+    <t>39293 014977</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>et.rutrum@necligula.com</t>
+  </si>
+  <si>
+    <t>01223 723363</t>
+  </si>
+  <si>
+    <t>Ap #667-7981 Pretium Rd.</t>
+  </si>
+  <si>
+    <t>Magee Mcclain</t>
+  </si>
+  <si>
+    <t>42497 844178</t>
+  </si>
+  <si>
+    <t>Rahim Z. Pope</t>
+  </si>
+  <si>
+    <t>34943 031466</t>
+  </si>
+  <si>
+    <t>Ima</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>justo.Proin.non@velit.org</t>
+  </si>
+  <si>
+    <t>01223 972907</t>
+  </si>
+  <si>
+    <t>P.O. Box 932, 8542 Et Rd.</t>
+  </si>
+  <si>
+    <t>Durham</t>
+  </si>
+  <si>
+    <t>Gisela Hutchinson</t>
+  </si>
+  <si>
+    <t>05068 918647</t>
+  </si>
+  <si>
+    <t>Jescie T. Glover</t>
+  </si>
+  <si>
+    <t>37396 639799</t>
+  </si>
+  <si>
+    <t>Hedy</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>porttitor@etlaciniavitae.org</t>
+  </si>
+  <si>
+    <t>01223 680418</t>
+  </si>
+  <si>
+    <t>537-5212 Ut St.</t>
+  </si>
+  <si>
+    <t>Hawaiian Gardens</t>
+  </si>
+  <si>
+    <t>Cole Hull</t>
+  </si>
+  <si>
+    <t>21158 435349</t>
+  </si>
+  <si>
+    <t>Lacey C. Goff</t>
+  </si>
+  <si>
+    <t>75251 479791</t>
+  </si>
+  <si>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>at@fringillaDonec.ca</t>
+  </si>
+  <si>
+    <t>01223 863948</t>
+  </si>
+  <si>
+    <t>6106 Phasellus St.</t>
+  </si>
+  <si>
+    <t>Yen Fuller</t>
+  </si>
+  <si>
+    <t>15114 533396</t>
+  </si>
+  <si>
+    <t>Grady P. Williams</t>
+  </si>
+  <si>
+    <t>94322 043295</t>
+  </si>
+  <si>
+    <t>Irma</t>
+  </si>
+  <si>
+    <t>Donec@utmolestie.edu</t>
+  </si>
+  <si>
+    <t>01223 959554</t>
+  </si>
+  <si>
+    <t>Ap #149-2377 Ac, Ave</t>
+  </si>
+  <si>
+    <t>Burbank</t>
+  </si>
+  <si>
+    <t>Fay Daugherty</t>
+  </si>
+  <si>
+    <t>40115 315911</t>
+  </si>
+  <si>
+    <t>Noah F. Chan</t>
+  </si>
+  <si>
+    <t>39782 973374</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Frye</t>
+  </si>
+  <si>
+    <t>tempor.erat@egestas.com</t>
+  </si>
+  <si>
+    <t>01223 584714</t>
+  </si>
+  <si>
+    <t>Ap #480-7753 Molestie Avenue</t>
+  </si>
+  <si>
+    <t>Arcadia</t>
+  </si>
+  <si>
+    <t>Roanna Martin</t>
+  </si>
+  <si>
+    <t>56238 364112</t>
+  </si>
+  <si>
+    <t>Maia H. Savage</t>
+  </si>
+  <si>
+    <t>52324 391853</t>
+  </si>
+  <si>
+    <t>Conan</t>
+  </si>
+  <si>
+    <t>Hodges</t>
+  </si>
+  <si>
+    <t>eget.venenatis@nibhsitamet.edu</t>
+  </si>
+  <si>
+    <t>01223 718061</t>
+  </si>
+  <si>
+    <t>Ap #817-7483 Nunc Av.</t>
+  </si>
+  <si>
+    <t>Michael Gilbert</t>
+  </si>
+  <si>
+    <t>24192 500690</t>
+  </si>
+  <si>
+    <t>Dane W. Lowe</t>
+  </si>
+  <si>
+    <t>02568 325566</t>
+  </si>
+  <si>
+    <t>Kellie</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>neque.sed@diamDuismi.ca</t>
+  </si>
+  <si>
+    <t>01223 754657</t>
+  </si>
+  <si>
+    <t>Ap #563-4525 Risus. St.</t>
+  </si>
+  <si>
+    <t>Amethyst Cain</t>
+  </si>
+  <si>
+    <t>45793 080526</t>
+  </si>
+  <si>
+    <t>Tanisha B. Miles</t>
+  </si>
+  <si>
+    <t>97297 001458</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Phasellus.libero.mauris@dignissimpharetraNam.ca</t>
+  </si>
+  <si>
+    <t>01223 464451</t>
+  </si>
+  <si>
+    <t>7382 Vestibulum Rd.</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Bernard Davidson</t>
+  </si>
+  <si>
+    <t>97297 266720</t>
+  </si>
+  <si>
+    <t>Tanya H. Barron</t>
+  </si>
+  <si>
+    <t>50130 467430</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>tellus@tristiquepellentesque.com</t>
+  </si>
+  <si>
+    <t>01223 764025</t>
+  </si>
+  <si>
+    <t>Ap #725-1946 Tempus Rd.</t>
+  </si>
+  <si>
+    <t>Carissa Mann</t>
+  </si>
+  <si>
+    <t>05859 696347</t>
+  </si>
+  <si>
+    <t>Seth I. Cobb</t>
+  </si>
+  <si>
+    <t>57903 840899</t>
+  </si>
+  <si>
+    <t>Idola</t>
+  </si>
+  <si>
+    <t>sociis.natoque@lectuspedeet.edu</t>
+  </si>
+  <si>
+    <t>01223 573821</t>
+  </si>
+  <si>
+    <t>673-8153 Sodales Road</t>
+  </si>
+  <si>
+    <t>Kaseem Richards</t>
+  </si>
+  <si>
+    <t>94122 047886</t>
+  </si>
+  <si>
+    <t>Aphrodite N. Jenkins</t>
+  </si>
+  <si>
+    <t>65886 912864</t>
+  </si>
+  <si>
+    <t>Sweeney</t>
+  </si>
+  <si>
+    <t>vel.pede.blandit@consequatnecmollis.org</t>
+  </si>
+  <si>
+    <t>01223 331897</t>
+  </si>
+  <si>
+    <t>660-9574 Lacus. Av.</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Kane Mclean</t>
+  </si>
+  <si>
+    <t>91568 731050</t>
+  </si>
+  <si>
+    <t>Honorato L. Oneill</t>
+  </si>
+  <si>
+    <t>94605 240256</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>Hurley</t>
+  </si>
+  <si>
+    <t>erat.in@Suspendissealiquet.com</t>
+  </si>
+  <si>
+    <t>01223 450845</t>
+  </si>
+  <si>
+    <t>P.O. Box 850, 9891 Sed Rd.</t>
+  </si>
+  <si>
+    <t>Amos Mcconnell</t>
+  </si>
+  <si>
+    <t>16302 547055</t>
+  </si>
+  <si>
+    <t>Marsden Y. Whitfield</t>
+  </si>
+  <si>
+    <t>60136 176240</t>
+  </si>
+  <si>
+    <t>Pacheco</t>
+  </si>
+  <si>
+    <t>velit.Quisque@sed.org</t>
+  </si>
+  <si>
+    <t>01223 005076</t>
+  </si>
+  <si>
+    <t>360-8717 Gravida. St.</t>
+  </si>
+  <si>
+    <t>Kerry Farley</t>
+  </si>
+  <si>
+    <t>04145 506666</t>
+  </si>
+  <si>
+    <t>Maxine M. Obrien</t>
+  </si>
+  <si>
+    <t>64008 836887</t>
+  </si>
+  <si>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>odio.auctor.vitae@loremvitae.org</t>
+  </si>
+  <si>
+    <t>01223 272746</t>
+  </si>
+  <si>
+    <t>Ap #586-8013 In Road</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Illiana Mosley</t>
+  </si>
+  <si>
+    <t>62968 121948</t>
+  </si>
+  <si>
+    <t>Christopher I. Massey</t>
+  </si>
+  <si>
+    <t>26536 809539</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>felis@Etiamimperdietdictum.edu</t>
+  </si>
+  <si>
+    <t>01223 477804</t>
+  </si>
+  <si>
+    <t>P.O. Box 270, 4572 Ac Road</t>
+  </si>
+  <si>
+    <t>Bethlehem</t>
+  </si>
+  <si>
+    <t>Nayda Ruiz</t>
+  </si>
+  <si>
+    <t>83332 957735</t>
+  </si>
+  <si>
+    <t>Ignacia P. Bird</t>
+  </si>
+  <si>
+    <t>41781 735678</t>
+  </si>
+  <si>
+    <t>Alisa</t>
+  </si>
+  <si>
+    <t>Wiggins</t>
+  </si>
+  <si>
+    <t>sagittis.Nullam@nec.ca</t>
+  </si>
+  <si>
+    <t>01223 968500</t>
+  </si>
+  <si>
+    <t>P.O. Box 204, 2682 Ridiculus Avenue</t>
+  </si>
+  <si>
+    <t>Rama Wilkins</t>
+  </si>
+  <si>
+    <t>19191 370065</t>
+  </si>
+  <si>
+    <t>Dai Q. Daniel</t>
+  </si>
+  <si>
+    <t>17088 463655</t>
+  </si>
+  <si>
+    <t>Kermit</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>ut@mi.edu</t>
+  </si>
+  <si>
+    <t>01223 052679</t>
+  </si>
+  <si>
+    <t>1699 Orci Rd.</t>
+  </si>
+  <si>
+    <t>Chino</t>
+  </si>
+  <si>
+    <t>Clio Riddle</t>
+  </si>
+  <si>
+    <t>71775 005168</t>
+  </si>
+  <si>
+    <t>Ivan Q. Riggs</t>
+  </si>
+  <si>
+    <t>72334 989697</t>
+  </si>
+  <si>
+    <t>Leblanc</t>
+  </si>
+  <si>
+    <t>amet@Phasellusnulla.com</t>
+  </si>
+  <si>
+    <t>01223 330903</t>
+  </si>
+  <si>
+    <t>2913 Condimentum Road</t>
+  </si>
+  <si>
+    <t>Fullerton</t>
+  </si>
+  <si>
+    <t>Philip Welch</t>
+  </si>
+  <si>
+    <t>94717 290631</t>
+  </si>
+  <si>
+    <t>Cameron M. Horne</t>
+  </si>
+  <si>
+    <t>52842 041999</t>
+  </si>
+  <si>
+    <t>Amela</t>
+  </si>
+  <si>
+    <t>eros@nibhsit.org</t>
+  </si>
+  <si>
+    <t>01223 561014</t>
+  </si>
+  <si>
+    <t>Ap #888-675 Morbi Rd.</t>
+  </si>
+  <si>
+    <t>San Dimas</t>
+  </si>
+  <si>
+    <t>Rogan Whitley</t>
+  </si>
+  <si>
+    <t>95251 726347</t>
+  </si>
+  <si>
+    <t>Cheyenne C. William</t>
+  </si>
+  <si>
+    <t>88914 244197</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>pretium.neque@fringillapurus.ca</t>
+  </si>
+  <si>
+    <t>01223 709787</t>
+  </si>
+  <si>
+    <t>P.O. Box 983, 4354 Etiam St.</t>
+  </si>
+  <si>
+    <t>Pembroke Pines</t>
+  </si>
+  <si>
+    <t>Calvin Hewitt</t>
+  </si>
+  <si>
+    <t>48713 510508</t>
+  </si>
+  <si>
+    <t>Dacey P. Copeland</t>
+  </si>
+  <si>
+    <t>70408 599976</t>
+  </si>
+  <si>
+    <t>Beverly</t>
+  </si>
+  <si>
+    <t>Briggs</t>
+  </si>
+  <si>
+    <t>faucibus.orci@Cum.edu</t>
+  </si>
+  <si>
+    <t>01223 852433</t>
+  </si>
+  <si>
+    <t>P.O. Box 509, 3397 Nunc Road</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Isadora Bruce</t>
+  </si>
+  <si>
+    <t>18430 748263</t>
+  </si>
+  <si>
+    <t>Jaquelyn R. Townsend</t>
+  </si>
+  <si>
+    <t>68406 435619</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
+    <t>consectetuer.adipiscing@ac.edu</t>
+  </si>
+  <si>
+    <t>01223 430109</t>
+  </si>
+  <si>
+    <t>Ap #982-4099 Eu St.</t>
+  </si>
+  <si>
+    <t>Brooklyn Park</t>
+  </si>
+  <si>
+    <t>Leandra Mcconnell</t>
+  </si>
+  <si>
+    <t>99792 706017</t>
+  </si>
+  <si>
+    <t>Danielle L. Rodriguez</t>
+  </si>
+  <si>
+    <t>04381 313201</t>
+  </si>
+  <si>
+    <t>Channing</t>
+  </si>
+  <si>
+    <t>sit.amet@Curabitur.org</t>
+  </si>
+  <si>
+    <t>01223 125520</t>
+  </si>
+  <si>
+    <t>P.O. Box 339, 2209 Nunc St.</t>
+  </si>
+  <si>
+    <t>Mankato</t>
+  </si>
+  <si>
+    <t>Keelie Dawson</t>
+  </si>
+  <si>
+    <t>69862 843198</t>
+  </si>
+  <si>
+    <t>Victor H. George</t>
+  </si>
+  <si>
+    <t>48272 578277</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Vivamus.euismod@at.edu</t>
+  </si>
+  <si>
+    <t>01223 623961</t>
+  </si>
+  <si>
+    <t>806-2376 Amet Road</t>
+  </si>
+  <si>
+    <t>Fitchburg</t>
+  </si>
+  <si>
+    <t>Adele Aguirre</t>
+  </si>
+  <si>
+    <t>76107 404743</t>
+  </si>
+  <si>
+    <t>Brody I. Hester</t>
+  </si>
+  <si>
+    <t>10553 018770</t>
+  </si>
+  <si>
+    <t>Roanna</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Aliquam.nec@pede.org</t>
+  </si>
+  <si>
+    <t>01223 789009</t>
+  </si>
+  <si>
+    <t>665-6636 Et, Rd.</t>
+  </si>
+  <si>
+    <t>Hall Hess</t>
+  </si>
+  <si>
+    <t>39352 009999</t>
+  </si>
+  <si>
+    <t>Leigh S. Pratt</t>
+  </si>
+  <si>
+    <t>44725 222616</t>
+  </si>
+  <si>
+    <t>Bevis</t>
+  </si>
+  <si>
+    <t>ultrices@euarcuMorbi.org</t>
+  </si>
+  <si>
+    <t>01223 484139</t>
+  </si>
+  <si>
+    <t>229-8894 Interdum. Rd.</t>
+  </si>
+  <si>
+    <t>Penelope Bond</t>
+  </si>
+  <si>
+    <t>07426 791542</t>
+  </si>
+  <si>
+    <t>Kennedy Z. Sosa</t>
+  </si>
+  <si>
+    <t>08975 988952</t>
+  </si>
+  <si>
+    <t>Farley</t>
+  </si>
+  <si>
+    <t>metus@euismod.com</t>
+  </si>
+  <si>
+    <t>01223 302301</t>
+  </si>
+  <si>
+    <t>Ap #365-6821 Nec, Av.</t>
+  </si>
+  <si>
+    <t>Kingston</t>
+  </si>
+  <si>
+    <t>Elton Elliott</t>
+  </si>
+  <si>
+    <t>35728 252386</t>
+  </si>
+  <si>
+    <t>Craig B. Perez</t>
+  </si>
+  <si>
+    <t>73875 131599</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Rich</t>
+  </si>
+  <si>
+    <t>Sed@aliquamerosturpis.ca</t>
+  </si>
+  <si>
+    <t>01223 234318</t>
+  </si>
+  <si>
+    <t>373-2260 Eu Av.</t>
+  </si>
+  <si>
+    <t>Manassas</t>
+  </si>
+  <si>
+    <t>Summer Campos</t>
+  </si>
+  <si>
+    <t>40228 390744</t>
+  </si>
+  <si>
+    <t>Blair J. Montgomery</t>
+  </si>
+  <si>
+    <t>02493 743156</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>et.netus@tristique.edu</t>
+  </si>
+  <si>
+    <t>01223 846249</t>
+  </si>
+  <si>
+    <t>473-8214 A Road</t>
+  </si>
+  <si>
+    <t>Orem</t>
+  </si>
+  <si>
+    <t>Lillith Gates</t>
+  </si>
+  <si>
+    <t>32924 222795</t>
+  </si>
+  <si>
+    <t>Nomlanga F. Bruce</t>
+  </si>
+  <si>
+    <t>33543 839168</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>interdum.feugiat@eueratsemper.org</t>
+  </si>
+  <si>
+    <t>01223 977110</t>
+  </si>
+  <si>
+    <t>596-9668 Sed Rd.</t>
+  </si>
+  <si>
+    <t>Fort Dodge</t>
+  </si>
+  <si>
+    <t>Pearl Mccray</t>
+  </si>
+  <si>
+    <t>28995 055726</t>
+  </si>
+  <si>
+    <t>Amela X. Dale</t>
+  </si>
+  <si>
+    <t>65867 441620</t>
+  </si>
+  <si>
+    <t>Lionel</t>
+  </si>
+  <si>
+    <t>turpis@Donecest.org</t>
+  </si>
+  <si>
+    <t>01223 278143</t>
+  </si>
+  <si>
+    <t>P.O. Box 443, 4517 Nibh St.</t>
+  </si>
+  <si>
+    <t>Egg Harbor</t>
+  </si>
+  <si>
+    <t>Aladdin Pruitt</t>
+  </si>
+  <si>
+    <t>05260 922703</t>
+  </si>
+  <si>
+    <t>Gemma J. Chambers</t>
+  </si>
+  <si>
+    <t>95198 409462</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="170" formatCode="0###########"/>
-    <numFmt numFmtId="171" formatCode="0##########"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="173" formatCode="&quot;£&quot;#,##0.00"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0###########"/>
+    <numFmt numFmtId="165" formatCode="0##########"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="00000000000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -8238,7 +11045,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="18" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8264,20 +11071,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8290,7 +11097,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8299,7 +11106,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8311,13 +11118,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="33" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8361,13 +11168,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8707,7 +11516,7 @@
   <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S3" sqref="A1:XFD1048576"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19802,7 +22611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -20154,4 +22963,4484 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C2" s="47">
+        <v>31068</v>
+      </c>
+      <c r="D2" s="48">
+        <v>7316359439</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2521</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2523</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2526</v>
+      </c>
+      <c r="M2">
+        <v>7800102362</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2527</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>2529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C3" s="47">
+        <v>26861</v>
+      </c>
+      <c r="D3" s="48">
+        <v>7499549440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2532</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2536</v>
+      </c>
+      <c r="M3">
+        <v>7827470315</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2537</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C4" s="47">
+        <v>26455</v>
+      </c>
+      <c r="D4" s="48">
+        <v>7343559387</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2542</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2543</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2544</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2545</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2547</v>
+      </c>
+      <c r="M4">
+        <v>7509832254</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2548</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="47">
+        <v>28907</v>
+      </c>
+      <c r="D5" s="48">
+        <v>7976981481</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2551</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2552</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2553</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2554</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2555</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2556</v>
+      </c>
+      <c r="M5">
+        <v>7757576948</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2557</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C6" s="47">
+        <v>31259</v>
+      </c>
+      <c r="D6" s="48">
+        <v>7531178925</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2560</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2562</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2563</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2564</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2566</v>
+      </c>
+      <c r="M6">
+        <v>7113417629</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2567</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="47">
+        <v>30009</v>
+      </c>
+      <c r="D7" s="48">
+        <v>7989446669</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2571</v>
+      </c>
+      <c r="H7" t="s">
+        <v>829</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2572</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2574</v>
+      </c>
+      <c r="M7">
+        <v>7477105251</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2575</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C8" s="47">
+        <v>29734</v>
+      </c>
+      <c r="D8" s="48">
+        <v>7405661049</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2580</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2581</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2582</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2583</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2584</v>
+      </c>
+      <c r="M8">
+        <v>7556813865</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2585</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>2587</v>
+      </c>
+      <c r="B9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="47">
+        <v>23685</v>
+      </c>
+      <c r="D9" s="48">
+        <v>7852044691</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2588</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2589</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2591</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2592</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2593</v>
+      </c>
+      <c r="M9">
+        <v>7532775321</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2594</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C10" s="47">
+        <v>28854</v>
+      </c>
+      <c r="D10" s="48">
+        <v>7619251783</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2598</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2599</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2600</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2601</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2602</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2603</v>
+      </c>
+      <c r="M10">
+        <v>7621374687</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C11" s="47">
+        <v>28236</v>
+      </c>
+      <c r="D11" s="48">
+        <v>7714069781</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H11" t="s">
+        <v>911</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2611</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2612</v>
+      </c>
+      <c r="M11">
+        <v>7015386122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2613</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C12" s="47">
+        <v>22825</v>
+      </c>
+      <c r="D12" s="48">
+        <v>7004868883</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2618</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2620</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2621</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2623</v>
+      </c>
+      <c r="M12">
+        <v>7067100032</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2624</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C13" s="47">
+        <v>29870</v>
+      </c>
+      <c r="D13" s="48">
+        <v>7555977035</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2628</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2631</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2632</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2633</v>
+      </c>
+      <c r="M13">
+        <v>7844674898</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2634</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C14" s="47">
+        <v>29571</v>
+      </c>
+      <c r="D14" s="48">
+        <v>7789952806</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2639</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2640</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2641</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2642</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2644</v>
+      </c>
+      <c r="M14">
+        <v>7655199071</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2645</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C15" s="47">
+        <v>27308</v>
+      </c>
+      <c r="D15" s="48">
+        <v>7415642208</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2651</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2652</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2653</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2654</v>
+      </c>
+      <c r="M15">
+        <v>7243052278</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2655</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>657</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C16" s="47">
+        <v>27182</v>
+      </c>
+      <c r="D16" s="48">
+        <v>7376281435</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2660</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2661</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2662</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2663</v>
+      </c>
+      <c r="M16">
+        <v>7844054750</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2664</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C17" s="47">
+        <v>26197</v>
+      </c>
+      <c r="D17" s="48">
+        <v>7636007852</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2668</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2669</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2670</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2671</v>
+      </c>
+      <c r="M17">
+        <v>7219287914</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2672</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C18" s="47">
+        <v>30187</v>
+      </c>
+      <c r="D18" s="48">
+        <v>7498593812</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2677</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2678</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2680</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2681</v>
+      </c>
+      <c r="M18">
+        <v>7272026731</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2682</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>814</v>
+      </c>
+      <c r="C19" s="47">
+        <v>28642</v>
+      </c>
+      <c r="D19" s="48">
+        <v>7864922194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2686</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2687</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2688</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2689</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2690</v>
+      </c>
+      <c r="M19">
+        <v>7672170400</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2691</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C20" s="47">
+        <v>23736</v>
+      </c>
+      <c r="D20" s="48">
+        <v>7365945518</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2695</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2696</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2697</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2698</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2700</v>
+      </c>
+      <c r="M20">
+        <v>7552380535</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2701</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C21" s="47">
+        <v>28415</v>
+      </c>
+      <c r="D21" s="48">
+        <v>7133825488</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2709</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2710</v>
+      </c>
+      <c r="M21">
+        <v>7252169030</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2711</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B22" t="s">
+        <v>868</v>
+      </c>
+      <c r="C22" s="47">
+        <v>25031</v>
+      </c>
+      <c r="D22" s="48">
+        <v>7544388641</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2716</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2717</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L22" t="s">
+        <v>2718</v>
+      </c>
+      <c r="M22">
+        <v>7801074736</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2719</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B23" t="s">
+        <v>286</v>
+      </c>
+      <c r="C23" s="47">
+        <v>27029</v>
+      </c>
+      <c r="D23" s="48">
+        <v>7615746548</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2723</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2724</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2726</v>
+      </c>
+      <c r="K23" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2727</v>
+      </c>
+      <c r="M23">
+        <v>7176094601</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2728</v>
+      </c>
+      <c r="O23" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2731</v>
+      </c>
+      <c r="C24" s="47">
+        <v>22404</v>
+      </c>
+      <c r="D24" s="48">
+        <v>7527994070</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2732</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2733</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2734</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2735</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2736</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2737</v>
+      </c>
+      <c r="M24">
+        <v>7004230497</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2738</v>
+      </c>
+      <c r="O24" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2741</v>
+      </c>
+      <c r="C25" s="47">
+        <v>28952</v>
+      </c>
+      <c r="D25" s="48">
+        <v>7651022137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2743</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2744</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2745</v>
+      </c>
+      <c r="K25" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L25" t="s">
+        <v>2746</v>
+      </c>
+      <c r="M25">
+        <v>7109048825</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2747</v>
+      </c>
+      <c r="O25" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C26" s="47">
+        <v>22865</v>
+      </c>
+      <c r="D26" s="48">
+        <v>7840455555</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2752</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2753</v>
+      </c>
+      <c r="H26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2754</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2755</v>
+      </c>
+      <c r="M26">
+        <v>7131660441</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2756</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C27" s="47">
+        <v>25187</v>
+      </c>
+      <c r="D27" s="48">
+        <v>7738321562</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2761</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2762</v>
+      </c>
+      <c r="H27" t="s">
+        <v>829</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2763</v>
+      </c>
+      <c r="K27" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L27" t="s">
+        <v>2764</v>
+      </c>
+      <c r="M27">
+        <v>7566279225</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2765</v>
+      </c>
+      <c r="O27" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C28" s="47">
+        <v>23371</v>
+      </c>
+      <c r="D28" s="48">
+        <v>7661328994</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2770</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2771</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2773</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2775</v>
+      </c>
+      <c r="M28">
+        <v>7836915830</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2776</v>
+      </c>
+      <c r="O28" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C29" s="47">
+        <v>25259</v>
+      </c>
+      <c r="D29" s="48">
+        <v>7315767504</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2780</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2781</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2782</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2783</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L29" t="s">
+        <v>2784</v>
+      </c>
+      <c r="M29">
+        <v>7662912252</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2785</v>
+      </c>
+      <c r="O29" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C30" s="47">
+        <v>31502</v>
+      </c>
+      <c r="D30" s="48">
+        <v>7937180742</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2792</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K30" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L30" t="s">
+        <v>2794</v>
+      </c>
+      <c r="M30">
+        <v>7659078514</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2795</v>
+      </c>
+      <c r="O30" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C31" s="47">
+        <v>30142</v>
+      </c>
+      <c r="D31" s="48">
+        <v>7255147806</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2799</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2800</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2801</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2802</v>
+      </c>
+      <c r="K31" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L31" t="s">
+        <v>2803</v>
+      </c>
+      <c r="M31">
+        <v>7877841083</v>
+      </c>
+      <c r="N31" t="s">
+        <v>2804</v>
+      </c>
+      <c r="O31" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C32" s="47">
+        <v>30386</v>
+      </c>
+      <c r="D32" s="48">
+        <v>7575230118</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2809</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2810</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2811</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2812</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L32" t="s">
+        <v>2813</v>
+      </c>
+      <c r="M32">
+        <v>7545911928</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2814</v>
+      </c>
+      <c r="O32" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C33" s="47">
+        <v>24290</v>
+      </c>
+      <c r="D33" s="48">
+        <v>7725634279</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2819</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2820</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2821</v>
+      </c>
+      <c r="K33" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L33" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M33">
+        <v>7021534585</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2823</v>
+      </c>
+      <c r="O33" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C34" s="47">
+        <v>28096</v>
+      </c>
+      <c r="D34" s="48">
+        <v>7075810841</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2826</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2827</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2828</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2829</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2830</v>
+      </c>
+      <c r="K34" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L34" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M34">
+        <v>7456315276</v>
+      </c>
+      <c r="N34" t="s">
+        <v>2832</v>
+      </c>
+      <c r="O34" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C35" s="47">
+        <v>30868</v>
+      </c>
+      <c r="D35" s="48">
+        <v>7726447893</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2836</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2837</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2838</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2839</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2840</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L35" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M35">
+        <v>7595801913</v>
+      </c>
+      <c r="N35" t="s">
+        <v>2842</v>
+      </c>
+      <c r="O35" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C36" s="47">
+        <v>26851</v>
+      </c>
+      <c r="D36" s="48">
+        <v>7863923528</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2846</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2847</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2848</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2849</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L36" t="s">
+        <v>2850</v>
+      </c>
+      <c r="M36">
+        <v>7500208973</v>
+      </c>
+      <c r="N36" t="s">
+        <v>2851</v>
+      </c>
+      <c r="O36" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C37" s="47">
+        <v>26967</v>
+      </c>
+      <c r="D37" s="48">
+        <v>7974601211</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2856</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2857</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2859</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2861</v>
+      </c>
+      <c r="M37">
+        <v>7508528755</v>
+      </c>
+      <c r="N37" t="s">
+        <v>2862</v>
+      </c>
+      <c r="O37" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C38" s="47">
+        <v>24154</v>
+      </c>
+      <c r="D38" s="48">
+        <v>7253058656</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2867</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2868</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2869</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2870</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M38">
+        <v>7701377412</v>
+      </c>
+      <c r="N38" t="s">
+        <v>2872</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C39" s="47">
+        <v>23697</v>
+      </c>
+      <c r="D39" s="48">
+        <v>7884343154</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2877</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2878</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2879</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2880</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2881</v>
+      </c>
+      <c r="M39">
+        <v>7181237512</v>
+      </c>
+      <c r="N39" t="s">
+        <v>2882</v>
+      </c>
+      <c r="O39" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>995</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C40" s="47">
+        <v>28760</v>
+      </c>
+      <c r="D40" s="48">
+        <v>7550005297</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2886</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2887</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2888</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2889</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2890</v>
+      </c>
+      <c r="M40">
+        <v>7464414597</v>
+      </c>
+      <c r="N40" t="s">
+        <v>2891</v>
+      </c>
+      <c r="O40" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C41" s="47">
+        <v>24336</v>
+      </c>
+      <c r="D41" s="48">
+        <v>7606051416</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2896</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2897</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2898</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L41" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M41">
+        <v>7334423500</v>
+      </c>
+      <c r="N41" t="s">
+        <v>2900</v>
+      </c>
+      <c r="O41" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C42" s="47">
+        <v>29418</v>
+      </c>
+      <c r="D42" s="48">
+        <v>7125756190</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2905</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2906</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2908</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2909</v>
+      </c>
+      <c r="M42">
+        <v>7091360709</v>
+      </c>
+      <c r="N42" t="s">
+        <v>2910</v>
+      </c>
+      <c r="O42" t="s">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C43" s="47">
+        <v>26670</v>
+      </c>
+      <c r="D43" s="48">
+        <v>7214116118</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2915</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2916</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2918</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2919</v>
+      </c>
+      <c r="M43">
+        <v>7873484658</v>
+      </c>
+      <c r="N43" t="s">
+        <v>2920</v>
+      </c>
+      <c r="O43" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C44" s="47">
+        <v>28511</v>
+      </c>
+      <c r="D44" s="48">
+        <v>7511838701</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2924</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2925</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2926</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2927</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2928</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2929</v>
+      </c>
+      <c r="M44">
+        <v>7813861552</v>
+      </c>
+      <c r="N44" t="s">
+        <v>2930</v>
+      </c>
+      <c r="O44" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C45" s="47">
+        <v>27105</v>
+      </c>
+      <c r="D45" s="48">
+        <v>7388597400</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2933</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2934</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2935</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2936</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2937</v>
+      </c>
+      <c r="M45">
+        <v>7323642869</v>
+      </c>
+      <c r="N45" t="s">
+        <v>2938</v>
+      </c>
+      <c r="O45" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C46" s="47">
+        <v>24822</v>
+      </c>
+      <c r="D46" s="48">
+        <v>7492690923</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2943</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2945</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2946</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2947</v>
+      </c>
+      <c r="M46">
+        <v>7944404647</v>
+      </c>
+      <c r="N46" t="s">
+        <v>2948</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>824</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C47" s="47">
+        <v>30290</v>
+      </c>
+      <c r="D47" s="48">
+        <v>7369088933</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2951</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2953</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2954</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2955</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L47" t="s">
+        <v>2956</v>
+      </c>
+      <c r="M47">
+        <v>7991952687</v>
+      </c>
+      <c r="N47" t="s">
+        <v>2957</v>
+      </c>
+      <c r="O47" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C48" s="47">
+        <v>30346</v>
+      </c>
+      <c r="D48" s="48">
+        <v>7281996898</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2960</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2961</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2962</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2963</v>
+      </c>
+      <c r="K48" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L48" t="s">
+        <v>2964</v>
+      </c>
+      <c r="M48">
+        <v>7602968477</v>
+      </c>
+      <c r="N48" t="s">
+        <v>2965</v>
+      </c>
+      <c r="O48" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>577</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C49" s="47">
+        <v>25346</v>
+      </c>
+      <c r="D49" s="48">
+        <v>7156836538</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2969</v>
+      </c>
+      <c r="H49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2970</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L49" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M49">
+        <v>7678889620</v>
+      </c>
+      <c r="N49" t="s">
+        <v>2972</v>
+      </c>
+      <c r="O49" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B50" t="s">
+        <v>986</v>
+      </c>
+      <c r="C50" s="47">
+        <v>24776</v>
+      </c>
+      <c r="D50" s="48">
+        <v>7657353032</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2974</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2975</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2976</v>
+      </c>
+      <c r="H50" t="s">
+        <v>414</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2977</v>
+      </c>
+      <c r="K50" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L50" t="s">
+        <v>2978</v>
+      </c>
+      <c r="M50">
+        <v>7641386247</v>
+      </c>
+      <c r="N50" t="s">
+        <v>2979</v>
+      </c>
+      <c r="O50" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C51" s="47">
+        <v>23878</v>
+      </c>
+      <c r="D51" s="48">
+        <v>7450112864</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2982</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2983</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2984</v>
+      </c>
+      <c r="H51" t="s">
+        <v>2725</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2985</v>
+      </c>
+      <c r="K51" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L51" t="s">
+        <v>2986</v>
+      </c>
+      <c r="M51">
+        <v>7424951654</v>
+      </c>
+      <c r="N51" t="s">
+        <v>2987</v>
+      </c>
+      <c r="O51" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C52" s="47">
+        <v>26927</v>
+      </c>
+      <c r="D52" s="48">
+        <v>7716951476</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F52" t="s">
+        <v>2991</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2992</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2993</v>
+      </c>
+      <c r="J52" t="s">
+        <v>2994</v>
+      </c>
+      <c r="K52" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L52" t="s">
+        <v>2995</v>
+      </c>
+      <c r="M52">
+        <v>7509309951</v>
+      </c>
+      <c r="N52" t="s">
+        <v>2996</v>
+      </c>
+      <c r="O52" t="s">
+        <v>2997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C53" s="47">
+        <v>26151</v>
+      </c>
+      <c r="D53" s="48">
+        <v>7275890390</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3001</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3002</v>
+      </c>
+      <c r="H53" t="s">
+        <v>3003</v>
+      </c>
+      <c r="J53" t="s">
+        <v>3004</v>
+      </c>
+      <c r="K53" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L53" t="s">
+        <v>3005</v>
+      </c>
+      <c r="M53">
+        <v>7960014826</v>
+      </c>
+      <c r="N53" t="s">
+        <v>3006</v>
+      </c>
+      <c r="O53" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C54" s="47">
+        <v>25075</v>
+      </c>
+      <c r="D54" s="48">
+        <v>7313028088</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F54" t="s">
+        <v>3010</v>
+      </c>
+      <c r="G54" t="s">
+        <v>3011</v>
+      </c>
+      <c r="H54" t="s">
+        <v>2072</v>
+      </c>
+      <c r="J54" t="s">
+        <v>3012</v>
+      </c>
+      <c r="K54" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L54" t="s">
+        <v>3013</v>
+      </c>
+      <c r="M54">
+        <v>7853022485</v>
+      </c>
+      <c r="N54" t="s">
+        <v>3014</v>
+      </c>
+      <c r="O54" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C55" s="47">
+        <v>24271</v>
+      </c>
+      <c r="D55" s="48">
+        <v>7538631494</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3017</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3018</v>
+      </c>
+      <c r="G55" t="s">
+        <v>3019</v>
+      </c>
+      <c r="H55" t="s">
+        <v>594</v>
+      </c>
+      <c r="J55" t="s">
+        <v>3020</v>
+      </c>
+      <c r="K55" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L55" t="s">
+        <v>3021</v>
+      </c>
+      <c r="M55">
+        <v>7148287933</v>
+      </c>
+      <c r="N55" t="s">
+        <v>3022</v>
+      </c>
+      <c r="O55" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C56" s="47">
+        <v>22606</v>
+      </c>
+      <c r="D56" s="48">
+        <v>7620428676</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3026</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3027</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3028</v>
+      </c>
+      <c r="J56" t="s">
+        <v>3029</v>
+      </c>
+      <c r="K56" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L56" t="s">
+        <v>3030</v>
+      </c>
+      <c r="M56">
+        <v>7317268937</v>
+      </c>
+      <c r="N56" t="s">
+        <v>3031</v>
+      </c>
+      <c r="O56" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C57" s="47">
+        <v>24583</v>
+      </c>
+      <c r="D57" s="48">
+        <v>7199047364</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3035</v>
+      </c>
+      <c r="G57" t="s">
+        <v>3036</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3037</v>
+      </c>
+      <c r="J57" t="s">
+        <v>3038</v>
+      </c>
+      <c r="K57" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L57" t="s">
+        <v>3039</v>
+      </c>
+      <c r="M57">
+        <v>7877502927</v>
+      </c>
+      <c r="N57" t="s">
+        <v>3040</v>
+      </c>
+      <c r="O57" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C58" s="47">
+        <v>22362</v>
+      </c>
+      <c r="D58" s="48">
+        <v>7459412380</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3044</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3045</v>
+      </c>
+      <c r="G58" t="s">
+        <v>3046</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3047</v>
+      </c>
+      <c r="J58" t="s">
+        <v>3048</v>
+      </c>
+      <c r="K58" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L58" t="s">
+        <v>3049</v>
+      </c>
+      <c r="M58">
+        <v>7635794355</v>
+      </c>
+      <c r="N58" t="s">
+        <v>3050</v>
+      </c>
+      <c r="O58" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C59" s="47">
+        <v>27156</v>
+      </c>
+      <c r="D59" s="48">
+        <v>7310810556</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3054</v>
+      </c>
+      <c r="F59" t="s">
+        <v>3055</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3056</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3057</v>
+      </c>
+      <c r="J59" t="s">
+        <v>3058</v>
+      </c>
+      <c r="K59" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L59" t="s">
+        <v>3059</v>
+      </c>
+      <c r="M59">
+        <v>7223961403</v>
+      </c>
+      <c r="N59" t="s">
+        <v>3060</v>
+      </c>
+      <c r="O59" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>760</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C60" s="47">
+        <v>26052</v>
+      </c>
+      <c r="D60" s="48">
+        <v>7427014337</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3063</v>
+      </c>
+      <c r="F60" t="s">
+        <v>3064</v>
+      </c>
+      <c r="G60" t="s">
+        <v>3065</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3066</v>
+      </c>
+      <c r="J60" t="s">
+        <v>3067</v>
+      </c>
+      <c r="K60" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L60" t="s">
+        <v>3068</v>
+      </c>
+      <c r="M60">
+        <v>7620659414</v>
+      </c>
+      <c r="N60" t="s">
+        <v>3069</v>
+      </c>
+      <c r="O60" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3072</v>
+      </c>
+      <c r="C61" s="47">
+        <v>31431</v>
+      </c>
+      <c r="D61" s="48">
+        <v>7266256877</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G61" t="s">
+        <v>3075</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3076</v>
+      </c>
+      <c r="J61" t="s">
+        <v>3077</v>
+      </c>
+      <c r="K61" t="s">
+        <v>3078</v>
+      </c>
+      <c r="L61" t="s">
+        <v>3079</v>
+      </c>
+      <c r="M61">
+        <v>7800344233</v>
+      </c>
+      <c r="N61" t="s">
+        <v>3080</v>
+      </c>
+      <c r="O61" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C62" s="47">
+        <v>27613</v>
+      </c>
+      <c r="D62" s="48">
+        <v>7264163964</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3083</v>
+      </c>
+      <c r="F62" t="s">
+        <v>3084</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3085</v>
+      </c>
+      <c r="H62" t="s">
+        <v>3086</v>
+      </c>
+      <c r="J62" t="s">
+        <v>3087</v>
+      </c>
+      <c r="K62" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L62" t="s">
+        <v>3088</v>
+      </c>
+      <c r="M62">
+        <v>7650306348</v>
+      </c>
+      <c r="N62" t="s">
+        <v>3089</v>
+      </c>
+      <c r="O62" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C63" s="47">
+        <v>24433</v>
+      </c>
+      <c r="D63" s="48">
+        <v>7469370920</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3093</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3094</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3095</v>
+      </c>
+      <c r="H63" t="s">
+        <v>3096</v>
+      </c>
+      <c r="J63" t="s">
+        <v>3097</v>
+      </c>
+      <c r="K63" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L63" t="s">
+        <v>3098</v>
+      </c>
+      <c r="M63">
+        <v>7025041443</v>
+      </c>
+      <c r="N63" t="s">
+        <v>3099</v>
+      </c>
+      <c r="O63" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C64" s="47">
+        <v>28186</v>
+      </c>
+      <c r="D64" s="48">
+        <v>7199822858</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3104</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3105</v>
+      </c>
+      <c r="H64" t="s">
+        <v>3106</v>
+      </c>
+      <c r="J64" t="s">
+        <v>3107</v>
+      </c>
+      <c r="K64" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L64" t="s">
+        <v>3108</v>
+      </c>
+      <c r="M64">
+        <v>7588933660</v>
+      </c>
+      <c r="N64" t="s">
+        <v>3109</v>
+      </c>
+      <c r="O64" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C65" s="47">
+        <v>23795</v>
+      </c>
+      <c r="D65" s="48">
+        <v>7218068656</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3112</v>
+      </c>
+      <c r="F65" t="s">
+        <v>3113</v>
+      </c>
+      <c r="G65" t="s">
+        <v>3114</v>
+      </c>
+      <c r="H65" t="s">
+        <v>3115</v>
+      </c>
+      <c r="J65" t="s">
+        <v>3116</v>
+      </c>
+      <c r="K65" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L65" t="s">
+        <v>3117</v>
+      </c>
+      <c r="M65">
+        <v>7739299915</v>
+      </c>
+      <c r="N65" t="s">
+        <v>3118</v>
+      </c>
+      <c r="O65" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3121</v>
+      </c>
+      <c r="C66" s="47">
+        <v>28816</v>
+      </c>
+      <c r="D66" s="48">
+        <v>7436186916</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3122</v>
+      </c>
+      <c r="F66" t="s">
+        <v>3123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>3124</v>
+      </c>
+      <c r="H66" t="s">
+        <v>3125</v>
+      </c>
+      <c r="J66" t="s">
+        <v>3126</v>
+      </c>
+      <c r="K66" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L66" t="s">
+        <v>3127</v>
+      </c>
+      <c r="M66">
+        <v>7768656344</v>
+      </c>
+      <c r="N66" t="s">
+        <v>3128</v>
+      </c>
+      <c r="O66" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C67" s="47">
+        <v>23666</v>
+      </c>
+      <c r="D67" s="48">
+        <v>7924187955</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3133</v>
+      </c>
+      <c r="G67" t="s">
+        <v>3134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1153</v>
+      </c>
+      <c r="J67" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K67" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L67" t="s">
+        <v>3136</v>
+      </c>
+      <c r="M67">
+        <v>7112501834</v>
+      </c>
+      <c r="N67" t="s">
+        <v>3137</v>
+      </c>
+      <c r="O67" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C68" s="47">
+        <v>25298</v>
+      </c>
+      <c r="D68" s="48">
+        <v>7709970182</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3141</v>
+      </c>
+      <c r="F68" t="s">
+        <v>3142</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3143</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3144</v>
+      </c>
+      <c r="J68" t="s">
+        <v>3145</v>
+      </c>
+      <c r="K68" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L68" t="s">
+        <v>3146</v>
+      </c>
+      <c r="M68">
+        <v>7507541569</v>
+      </c>
+      <c r="N68" t="s">
+        <v>3147</v>
+      </c>
+      <c r="O68" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C69" s="47">
+        <v>23632</v>
+      </c>
+      <c r="D69" s="48">
+        <v>7921216724</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3151</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3152</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3153</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3154</v>
+      </c>
+      <c r="J69" t="s">
+        <v>3155</v>
+      </c>
+      <c r="K69" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L69" t="s">
+        <v>3156</v>
+      </c>
+      <c r="M69">
+        <v>7816621782</v>
+      </c>
+      <c r="N69" t="s">
+        <v>3157</v>
+      </c>
+      <c r="O69" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C70" s="47">
+        <v>28354</v>
+      </c>
+      <c r="D70" s="48">
+        <v>7966117033</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3161</v>
+      </c>
+      <c r="F70" t="s">
+        <v>3162</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3163</v>
+      </c>
+      <c r="H70" t="s">
+        <v>606</v>
+      </c>
+      <c r="J70" t="s">
+        <v>3164</v>
+      </c>
+      <c r="K70" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>3165</v>
+      </c>
+      <c r="M70">
+        <v>7714380187</v>
+      </c>
+      <c r="N70" t="s">
+        <v>3166</v>
+      </c>
+      <c r="O70" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C71" s="47">
+        <v>27345</v>
+      </c>
+      <c r="D71" s="48">
+        <v>7488567371</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3170</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3171</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3172</v>
+      </c>
+      <c r="H71" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J71" t="s">
+        <v>3174</v>
+      </c>
+      <c r="K71" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L71" t="s">
+        <v>3175</v>
+      </c>
+      <c r="M71">
+        <v>7616116049</v>
+      </c>
+      <c r="N71" t="s">
+        <v>3176</v>
+      </c>
+      <c r="O71" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C72" s="47">
+        <v>23111</v>
+      </c>
+      <c r="D72" s="48">
+        <v>7855493110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3180</v>
+      </c>
+      <c r="F72" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3182</v>
+      </c>
+      <c r="H72" t="s">
+        <v>3183</v>
+      </c>
+      <c r="J72" t="s">
+        <v>3184</v>
+      </c>
+      <c r="K72" t="s">
+        <v>3078</v>
+      </c>
+      <c r="L72" t="s">
+        <v>3185</v>
+      </c>
+      <c r="M72">
+        <v>7427562104</v>
+      </c>
+      <c r="N72" t="s">
+        <v>3186</v>
+      </c>
+      <c r="O72" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C73" s="47">
+        <v>28989</v>
+      </c>
+      <c r="D73" s="48">
+        <v>7663902420</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3190</v>
+      </c>
+      <c r="F73" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3192</v>
+      </c>
+      <c r="H73" t="s">
+        <v>945</v>
+      </c>
+      <c r="J73" t="s">
+        <v>3193</v>
+      </c>
+      <c r="K73" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L73" t="s">
+        <v>3194</v>
+      </c>
+      <c r="M73">
+        <v>7245454024</v>
+      </c>
+      <c r="N73" t="s">
+        <v>3195</v>
+      </c>
+      <c r="O73" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C74" s="47">
+        <v>26969</v>
+      </c>
+      <c r="D74" s="48">
+        <v>7178475720</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3198</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G74" t="s">
+        <v>3200</v>
+      </c>
+      <c r="H74" t="s">
+        <v>3201</v>
+      </c>
+      <c r="J74" t="s">
+        <v>3202</v>
+      </c>
+      <c r="K74" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L74" t="s">
+        <v>3203</v>
+      </c>
+      <c r="M74">
+        <v>7560231444</v>
+      </c>
+      <c r="N74" t="s">
+        <v>3204</v>
+      </c>
+      <c r="O74" t="s">
+        <v>3205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C75" s="47">
+        <v>31102</v>
+      </c>
+      <c r="D75" s="48">
+        <v>7878889350</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3209</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3210</v>
+      </c>
+      <c r="H75" t="s">
+        <v>3211</v>
+      </c>
+      <c r="J75" t="s">
+        <v>3212</v>
+      </c>
+      <c r="K75" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L75" t="s">
+        <v>3213</v>
+      </c>
+      <c r="M75">
+        <v>7356221029</v>
+      </c>
+      <c r="N75" t="s">
+        <v>3214</v>
+      </c>
+      <c r="O75" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C76" s="47">
+        <v>31635</v>
+      </c>
+      <c r="D76" s="48">
+        <v>7688890157</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F76" t="s">
+        <v>3219</v>
+      </c>
+      <c r="G76" t="s">
+        <v>3220</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J76" t="s">
+        <v>3221</v>
+      </c>
+      <c r="K76" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L76" t="s">
+        <v>3222</v>
+      </c>
+      <c r="M76">
+        <v>7314172849</v>
+      </c>
+      <c r="N76" t="s">
+        <v>3223</v>
+      </c>
+      <c r="O76" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C77" s="47">
+        <v>22472</v>
+      </c>
+      <c r="D77" s="48">
+        <v>7269950265</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F77" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3229</v>
+      </c>
+      <c r="H77" t="s">
+        <v>956</v>
+      </c>
+      <c r="J77" t="s">
+        <v>3230</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L77" t="s">
+        <v>3231</v>
+      </c>
+      <c r="M77">
+        <v>7198364774</v>
+      </c>
+      <c r="N77" t="s">
+        <v>3232</v>
+      </c>
+      <c r="O77" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" s="47">
+        <v>23675</v>
+      </c>
+      <c r="D78" s="48">
+        <v>7829446645</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3235</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3236</v>
+      </c>
+      <c r="G78" t="s">
+        <v>3237</v>
+      </c>
+      <c r="H78" t="s">
+        <v>3238</v>
+      </c>
+      <c r="J78" t="s">
+        <v>3239</v>
+      </c>
+      <c r="K78" t="s">
+        <v>3078</v>
+      </c>
+      <c r="L78" t="s">
+        <v>3240</v>
+      </c>
+      <c r="M78">
+        <v>7282932693</v>
+      </c>
+      <c r="N78" t="s">
+        <v>3241</v>
+      </c>
+      <c r="O78" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C79" s="47">
+        <v>25153</v>
+      </c>
+      <c r="D79" s="48">
+        <v>7207938111</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>3246</v>
+      </c>
+      <c r="G79" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3033</v>
+      </c>
+      <c r="J79" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K79" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L79" t="s">
+        <v>3249</v>
+      </c>
+      <c r="M79">
+        <v>7599056287</v>
+      </c>
+      <c r="N79" t="s">
+        <v>3250</v>
+      </c>
+      <c r="O79" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C80" s="47">
+        <v>26099</v>
+      </c>
+      <c r="D80" s="48">
+        <v>7635982571</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F80" t="s">
+        <v>3254</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3255</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J80" t="s">
+        <v>3256</v>
+      </c>
+      <c r="K80" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L80" t="s">
+        <v>3257</v>
+      </c>
+      <c r="M80">
+        <v>7194440295</v>
+      </c>
+      <c r="N80" t="s">
+        <v>3258</v>
+      </c>
+      <c r="O80" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>868</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C81" s="47">
+        <v>27811</v>
+      </c>
+      <c r="D81" s="48">
+        <v>7556332436</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3261</v>
+      </c>
+      <c r="F81" t="s">
+        <v>3262</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3263</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3264</v>
+      </c>
+      <c r="J81" t="s">
+        <v>3265</v>
+      </c>
+      <c r="K81" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L81" t="s">
+        <v>3266</v>
+      </c>
+      <c r="M81">
+        <v>7036872858</v>
+      </c>
+      <c r="N81" t="s">
+        <v>3267</v>
+      </c>
+      <c r="O81" t="s">
+        <v>3268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C82" s="47">
+        <v>23926</v>
+      </c>
+      <c r="D82" s="48">
+        <v>7326486413</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3271</v>
+      </c>
+      <c r="F82" t="s">
+        <v>3272</v>
+      </c>
+      <c r="G82" t="s">
+        <v>3273</v>
+      </c>
+      <c r="H82" t="s">
+        <v>2679</v>
+      </c>
+      <c r="J82" t="s">
+        <v>3274</v>
+      </c>
+      <c r="K82" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L82" t="s">
+        <v>3275</v>
+      </c>
+      <c r="M82">
+        <v>7501009020</v>
+      </c>
+      <c r="N82" t="s">
+        <v>3276</v>
+      </c>
+      <c r="O82" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C83" s="47">
+        <v>22521</v>
+      </c>
+      <c r="D83" s="48">
+        <v>7674729221</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F83" t="s">
+        <v>3280</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3281</v>
+      </c>
+      <c r="H83" t="s">
+        <v>3096</v>
+      </c>
+      <c r="J83" t="s">
+        <v>3282</v>
+      </c>
+      <c r="K83" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L83" t="s">
+        <v>3283</v>
+      </c>
+      <c r="M83">
+        <v>7328551356</v>
+      </c>
+      <c r="N83" t="s">
+        <v>3284</v>
+      </c>
+      <c r="O83" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2657</v>
+      </c>
+      <c r="C84" s="47">
+        <v>28556</v>
+      </c>
+      <c r="D84" s="48">
+        <v>7240806235</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3287</v>
+      </c>
+      <c r="F84" t="s">
+        <v>3288</v>
+      </c>
+      <c r="G84" t="s">
+        <v>3289</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3290</v>
+      </c>
+      <c r="J84" t="s">
+        <v>3291</v>
+      </c>
+      <c r="K84" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L84" t="s">
+        <v>3292</v>
+      </c>
+      <c r="M84">
+        <v>7305751575</v>
+      </c>
+      <c r="N84" t="s">
+        <v>3293</v>
+      </c>
+      <c r="O84" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3295</v>
+      </c>
+      <c r="C85" s="47">
+        <v>27650</v>
+      </c>
+      <c r="D85" s="48">
+        <v>7033971287</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3296</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3297</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3298</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3299</v>
+      </c>
+      <c r="J85" t="s">
+        <v>3300</v>
+      </c>
+      <c r="K85" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L85" t="s">
+        <v>3301</v>
+      </c>
+      <c r="M85">
+        <v>7888190607</v>
+      </c>
+      <c r="N85" t="s">
+        <v>3302</v>
+      </c>
+      <c r="O85" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3305</v>
+      </c>
+      <c r="C86" s="47">
+        <v>22644</v>
+      </c>
+      <c r="D86" s="48">
+        <v>7866692470</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3306</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3307</v>
+      </c>
+      <c r="G86" t="s">
+        <v>3308</v>
+      </c>
+      <c r="H86" t="s">
+        <v>661</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3309</v>
+      </c>
+      <c r="K86" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L86" t="s">
+        <v>3310</v>
+      </c>
+      <c r="M86">
+        <v>7169980258</v>
+      </c>
+      <c r="N86" t="s">
+        <v>3311</v>
+      </c>
+      <c r="O86" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C87" s="47">
+        <v>29776</v>
+      </c>
+      <c r="D87" s="48">
+        <v>7927993052</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3315</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G87" t="s">
+        <v>3317</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3318</v>
+      </c>
+      <c r="J87" t="s">
+        <v>3319</v>
+      </c>
+      <c r="K87" t="s">
+        <v>2860</v>
+      </c>
+      <c r="L87" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M87">
+        <v>7738586608</v>
+      </c>
+      <c r="N87" t="s">
+        <v>3321</v>
+      </c>
+      <c r="O87" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3323</v>
+      </c>
+      <c r="C88" s="47">
+        <v>30366</v>
+      </c>
+      <c r="D88" s="48">
+        <v>7751919648</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3324</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G88" t="s">
+        <v>3326</v>
+      </c>
+      <c r="H88" t="s">
+        <v>3327</v>
+      </c>
+      <c r="J88" t="s">
+        <v>3328</v>
+      </c>
+      <c r="K88" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L88" t="s">
+        <v>3329</v>
+      </c>
+      <c r="M88">
+        <v>7534982119</v>
+      </c>
+      <c r="N88" t="s">
+        <v>3330</v>
+      </c>
+      <c r="O88" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C89" s="47">
+        <v>30960</v>
+      </c>
+      <c r="D89" s="48">
+        <v>7107738373</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F89" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3335</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J89" t="s">
+        <v>3337</v>
+      </c>
+      <c r="K89" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L89" t="s">
+        <v>3338</v>
+      </c>
+      <c r="M89">
+        <v>7585144222</v>
+      </c>
+      <c r="N89" t="s">
+        <v>3339</v>
+      </c>
+      <c r="O89" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B90" t="s">
+        <v>858</v>
+      </c>
+      <c r="C90" s="47">
+        <v>24577</v>
+      </c>
+      <c r="D90" s="48">
+        <v>7497834420</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3342</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G90" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J90" t="s">
+        <v>3346</v>
+      </c>
+      <c r="K90" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L90" t="s">
+        <v>3347</v>
+      </c>
+      <c r="M90">
+        <v>7386315877</v>
+      </c>
+      <c r="N90" t="s">
+        <v>3348</v>
+      </c>
+      <c r="O90" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3351</v>
+      </c>
+      <c r="C91" s="47">
+        <v>31206</v>
+      </c>
+      <c r="D91" s="48">
+        <v>7221729115</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3352</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3353</v>
+      </c>
+      <c r="G91" t="s">
+        <v>3354</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J91" t="s">
+        <v>3356</v>
+      </c>
+      <c r="K91" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L91" t="s">
+        <v>3357</v>
+      </c>
+      <c r="M91">
+        <v>7692006311</v>
+      </c>
+      <c r="N91" t="s">
+        <v>3358</v>
+      </c>
+      <c r="O91" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B92" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="47">
+        <v>27094</v>
+      </c>
+      <c r="D92" s="48">
+        <v>7630904596</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3361</v>
+      </c>
+      <c r="F92" t="s">
+        <v>3362</v>
+      </c>
+      <c r="G92" t="s">
+        <v>3363</v>
+      </c>
+      <c r="H92" t="s">
+        <v>3364</v>
+      </c>
+      <c r="J92" t="s">
+        <v>3365</v>
+      </c>
+      <c r="K92" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L92" t="s">
+        <v>3366</v>
+      </c>
+      <c r="M92">
+        <v>7102262678</v>
+      </c>
+      <c r="N92" t="s">
+        <v>3367</v>
+      </c>
+      <c r="O92" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B93" t="s">
+        <v>974</v>
+      </c>
+      <c r="C93" s="47">
+        <v>24906</v>
+      </c>
+      <c r="D93" s="48">
+        <v>7828936139</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3370</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3371</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3372</v>
+      </c>
+      <c r="H93" t="s">
+        <v>3373</v>
+      </c>
+      <c r="J93" t="s">
+        <v>3374</v>
+      </c>
+      <c r="K93" t="s">
+        <v>2535</v>
+      </c>
+      <c r="L93" t="s">
+        <v>3375</v>
+      </c>
+      <c r="M93">
+        <v>7397410765</v>
+      </c>
+      <c r="N93" t="s">
+        <v>3376</v>
+      </c>
+      <c r="O93" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B94" t="s">
+        <v>701</v>
+      </c>
+      <c r="C94" s="47">
+        <v>31262</v>
+      </c>
+      <c r="D94" s="48">
+        <v>7633722120</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G94" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3382</v>
+      </c>
+      <c r="J94" t="s">
+        <v>3383</v>
+      </c>
+      <c r="K94" t="s">
+        <v>2622</v>
+      </c>
+      <c r="L94" t="s">
+        <v>3384</v>
+      </c>
+      <c r="M94">
+        <v>7466814144</v>
+      </c>
+      <c r="N94" t="s">
+        <v>3385</v>
+      </c>
+      <c r="O94" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3388</v>
+      </c>
+      <c r="C95" s="47">
+        <v>25688</v>
+      </c>
+      <c r="D95" s="48">
+        <v>7588232798</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3389</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3390</v>
+      </c>
+      <c r="G95" t="s">
+        <v>3391</v>
+      </c>
+      <c r="H95" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" t="s">
+        <v>3392</v>
+      </c>
+      <c r="K95" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L95" t="s">
+        <v>3393</v>
+      </c>
+      <c r="M95">
+        <v>7995521145</v>
+      </c>
+      <c r="N95" t="s">
+        <v>3394</v>
+      </c>
+      <c r="O95" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B96" t="s">
+        <v>511</v>
+      </c>
+      <c r="C96" s="47">
+        <v>25965</v>
+      </c>
+      <c r="D96" s="48">
+        <v>7613602697</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F96" t="s">
+        <v>3398</v>
+      </c>
+      <c r="G96" t="s">
+        <v>3399</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1942</v>
+      </c>
+      <c r="J96" t="s">
+        <v>3400</v>
+      </c>
+      <c r="K96" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L96" t="s">
+        <v>3401</v>
+      </c>
+      <c r="M96">
+        <v>7932583451</v>
+      </c>
+      <c r="N96" t="s">
+        <v>3402</v>
+      </c>
+      <c r="O96" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C97" s="47">
+        <v>31619</v>
+      </c>
+      <c r="D97" s="48">
+        <v>7924566509</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3407</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3408</v>
+      </c>
+      <c r="J97" t="s">
+        <v>3409</v>
+      </c>
+      <c r="K97" t="s">
+        <v>2573</v>
+      </c>
+      <c r="L97" t="s">
+        <v>3410</v>
+      </c>
+      <c r="M97">
+        <v>7499252905</v>
+      </c>
+      <c r="N97" t="s">
+        <v>3411</v>
+      </c>
+      <c r="O97" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C98" s="47">
+        <v>30997</v>
+      </c>
+      <c r="D98" s="48">
+        <v>7130526915</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3416</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3417</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3418</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3419</v>
+      </c>
+      <c r="K98" t="s">
+        <v>3078</v>
+      </c>
+      <c r="L98" t="s">
+        <v>3420</v>
+      </c>
+      <c r="M98">
+        <v>7835768917</v>
+      </c>
+      <c r="N98" t="s">
+        <v>3421</v>
+      </c>
+      <c r="O98" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C99" s="47">
+        <v>27946</v>
+      </c>
+      <c r="D99" s="48">
+        <v>7934788613</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3426</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3427</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3428</v>
+      </c>
+      <c r="J99" t="s">
+        <v>3429</v>
+      </c>
+      <c r="K99" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L99" t="s">
+        <v>3430</v>
+      </c>
+      <c r="M99">
+        <v>7182516382</v>
+      </c>
+      <c r="N99" t="s">
+        <v>3431</v>
+      </c>
+      <c r="O99" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C100" s="47">
+        <v>30841</v>
+      </c>
+      <c r="D100" s="48">
+        <v>7173868050</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3437</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3438</v>
+      </c>
+      <c r="J100" t="s">
+        <v>3439</v>
+      </c>
+      <c r="K100" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L100" t="s">
+        <v>3440</v>
+      </c>
+      <c r="M100">
+        <v>7834479407</v>
+      </c>
+      <c r="N100" t="s">
+        <v>3441</v>
+      </c>
+      <c r="O100" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C101" s="47">
+        <v>26544</v>
+      </c>
+      <c r="D101" s="48">
+        <v>7013840785</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3444</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3445</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3446</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3447</v>
+      </c>
+      <c r="J101" t="s">
+        <v>3448</v>
+      </c>
+      <c r="K101" t="s">
+        <v>2546</v>
+      </c>
+      <c r="L101" t="s">
+        <v>3449</v>
+      </c>
+      <c r="M101">
+        <v>7143157687</v>
+      </c>
+      <c r="N101" t="s">
+        <v>3450</v>
+      </c>
+      <c r="O101" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>